--- a/Geographical Coordinates of Buildings.xlsx
+++ b/Geographical Coordinates of Buildings.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -417,6 +420,33 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="cdn-uplinks-20131201-20141130"/>
+      <sheetName val="Calculations"/>
+      <sheetName val="Download"/>
+      <sheetName val="Upload"/>
+      <sheetName val="locations"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="V2">
+            <v>27680494</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B62" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -746,8 +776,8 @@
         <v>-74.661269500000003</v>
       </c>
       <c r="D2" t="str">
-        <f>"{location: new google.maps.LatLng("&amp;B2&amp;","&amp; C2&amp;"),  weight:"</f>
-        <v>{location: new google.maps.LatLng(40.347607,-74.6612695),  weight:</v>
+        <f>"{location: new google.maps.LatLng("&amp;B2&amp;","&amp; C2&amp;"),  weight: "&amp;[1]Download!$V$2&amp;"},"</f>
+        <v>{location: new google.maps.LatLng(40.347607,-74.6612695),  weight: 27680494},</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
